--- a/Natural Language Processing/Assignment/newtest.xlsx
+++ b/Natural Language Processing/Assignment/newtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>log_reg_pred</t>
+          <t>chunked</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lvc_pred</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lvc_prediction</t>
         </is>
       </c>
     </row>
@@ -476,6 +486,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>looking fun interesting fact black naped oriole learn amazing bird discover animal tiny insect giant mammal</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Black-naped Oriole</t>
         </is>
       </c>
@@ -501,6 +521,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>giant panda grey wolf canis lupus proboscis monkey western gorilla gorilla gorilla scarlet macaw ara macao basic fact black hooded oriole lifespan distribution habitat map lifestyle social behavior mating habit diet nutrition population size status</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Black-naped Oriole</t>
         </is>
       </c>
@@ -526,7 +556,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>javanicus displayed feeding walking jumping hopping gleaning running short flying voicing looking around feather fluffing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
@@ -551,6 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>black naped oriole explore topic name description description male overall bright yellow plumage nape wing tip black female like male</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Black-naped Oriole</t>
         </is>
       </c>
@@ -576,7 +626,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>javan_myna also known white vented myna specie myna member starling family native bali java introduced asian country far away puerto rico</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
@@ -601,7 +661,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>worry typo error true common myna common sight anymore sadly common myna native asia might wonder happened go soon let introduce common myna acridotheres tristis smarko</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
@@ -626,6 +696,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>black naped oriole oriolus chinensis passerine bird oriole family found many part asia several distinctive population within wide distribution range specie past slender billed oriole oriolus tenuirostris included subspecies unlike indian golden oriole</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Black-naped Oriole</t>
         </is>
       </c>
@@ -651,6 +731,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>oriolus chinensis relatively medium size tip tail beak cm bird black yellow black stripe passing eye nape mostly black flying feather lower body whitish black dot red iris shape beak tapered slightly curved downward length beak approximately cm leg black</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Black-naped Oriole</t>
         </is>
       </c>
@@ -676,7 +766,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>little_egret common waterbird hong kong since little_egret resident hong kong occur throughout year various type wetland including freshwater marsh intertidal mudflat visitor may find little_egret preying resting shallow water</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
@@ -701,55 +801,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>little_egret egretta garzetta ardeidae family migrant common length mm wingspan mm bird april smallest egret found philippine common found easy identify due yellow foot bill long slender</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>px-captcha</t>
+          <t xml:space="preserve"> We cannot provide a description for this page right now</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Little Egret</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>px captcha</t>
+          <t>provide description page right</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>provide description page right</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We cannot provide a description for this page right now</t>
+          <t xml:space="preserve">Black-naped Oriole distribution. SoIB 2020. State of India's Birds factsheet: Black-naped Oriole Oriolus chinensis https://www.stateofindiasbirds.in/species/blnori1 ... </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Little Egret</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>provide description page right</t>
+          <t>black naped oriole distribution soib state india bird factsheet black naped oriole oriolus chinensis http www stateofindiasbirds specie blnori</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>black naped oriole distribution soib state india bird factsheet black naped oriole oriolus chinensis http www stateofindiasbirds specie blnori</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -757,50 +887,70 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Black-naped Oriole distribution. SoIB 2020. State of India's Birds factsheet: Black-naped Oriole Oriolus chinensis https://www.stateofindiasbirds.in/species/blnori1 ... </t>
+          <t>I spotted this individual @ KL, MY
+I'm at my wit's end trying to identify him. I can't tell if he's Javan or Jungle. I'm colorblind AND the picture is not...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>black naped oriole distribution soib state india bird factsheet black naped oriole oriolus chinensis http www stateofindiasbirds specie blnori</t>
+          <t>spotted individual kl wit end trying identify tell javan jungle colorblind picture</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>spotted individual kl wit end trying identify tell javan jungle colorblind picture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I spotted this individual @ KL, MY
-I'm at my wit's end trying to identify him. I can't tell if he's Javan or Jungle. I'm colorblind AND the picture is not...</t>
+          <t xml:space="preserve">Description. The black-naped oriole is medium-sized and overall golden with a strong pinkish bill and a broad black mask and nape. The adult male has the central tail feathers tipped yellow and the lateral ones are more broadly yellow. The female has the mantle colour more greenish or olive. The juvenile has a streaked underside. </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>spotted individual kl wit end trying identify tell javan jungle colorblind picture</t>
+          <t>description black naped oriole medium sized overall golden strong pinkish bill broad black mask nape adult male central tail feather tipped yellow lateral one broadly yellow female mantle colour greenish olive juvenile streaked underside</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>description black naped oriole medium sized overall golden strong pinkish bill broad black mask nape adult male central tail feather tipped yellow lateral one broadly yellow female mantle colour greenish olive juvenile streaked underside</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -808,11 +958,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description. The black-naped oriole is medium-sized and overall golden with a strong pinkish bill and a broad black mask and nape. The adult male has the central tail feathers tipped yellow and the lateral ones are more broadly yellow. The female has the mantle colour more greenish or olive. The juvenile has a streaked underside. </t>
+          <t>Males are bright yellow overall save for the black wings and inner tail feathers. Note the yellow patch on the wings, the yellow outer tail feathers, the black stripe through the eye that gives it a masked appearance, and the fleshy pink bill. The female is dull greenish-yellow overall with dirty brown/green wings and a completely yellowish tail. Both males and females have red iris. Most often found feeding in tree canopies either singly or in pairs. They generally give a harsh â€œkrrrrrrrrrrrrâ€ call while feeding. In flight, note its characteristic dipping flight style.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -822,10 +972,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>description black naped oriole medium sized overall golden strong pinkish bill broad black mask nape adult male central tail feather tipped yellow lateral one broadly yellow female mantle colour greenish olive juvenile streaked underside</t>
+          <t>male bright yellow overall save black wing inner tail feather note yellow patch wing yellow outer tail feather black stripe eye give masked appearance fleshy pink bill female dull greenish yellow overall dirty brown green wing completely yellowish tail male female red iris often found feeding tree canopy either singly pair generally give harsh krrrrrrrrrrrr call feeding flight note characteristic dipping flight style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>male bright yellow overall save black wing inner tail feather note yellow patch wing yellow outer tail feather black stripe eye give masked appearance fleshy pink bill female dull greenish yellow overall dirty brown green wing completely yellowish tail male female red iris often found feeding tree canopy either singly pair generally give harsh krrrrrrrrrrrr call feeding flight note characteristic dipping flight style</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -833,11 +993,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Males are bright yellow overall save for the black wings and inner tail feathers. Note the yellow patch on the wings, the yellow outer tail feathers, the black stripe through the eye that gives it a masked appearance, and the fleshy pink bill. The female is dull greenish-yellow overall with dirty brown/green wings and a completely yellowish tail. Both males and females have red iris. Most often found feeding in tree canopies either singly or in pairs. They generally give a harsh â€œkrrrrrrrrrrrrâ€ call while feeding. In flight, note its characteristic dipping flight style.</t>
+          <t>The eBird taxonomy update is now complete. These updates happen once a year to take into account splits, lumps, name changes, and changes in the sequence of the species lists.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -847,10 +1007,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>male bright yellow overall save black wing inner tail feather note yellow patch wing yellow outer tail feather black stripe eye give masked appearance fleshy pink bill female dull greenish yellow overall dirty brown green wing completely yellowish tail male female red iris often found feeding tree canopy either singly pair generally give harsh krrrrrrrrrrrr call feeding flight note characteristic dipping flight style</t>
+          <t>ebird taxonomy update complete update happen year take account split lump name change change sequence specie list</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>ebird taxonomy update complete update happen year take account split lump name change change sequence specie list</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -858,111 +1028,151 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The eBird taxonomy update is now complete. These updates happen once a year to take into account splits, lumps, name changes, and changes in the sequence of the species lists.</t>
+          <t xml:space="preserve">The Forest Kingfisher is also known as Macleay's, Blue or Bush Kingfisher. Similar species: Two species related to the Forest Kingfisher may be similar, however the Collared Kingfisher, T. chloris , is larger and greener with no white wing patch, while the Sacred Kingfisher , T. sanctus , is a little larger with more buff brown underparts and no wing patch. </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ebird taxonomy update complete update happen year take account split lump name change change sequence specie list</t>
+          <t>forest kingfisher also known macleay blue bush kingfisher similar specie two specie related forest kingfisher may similar however collared kingfisher chloris larger greener white wing patch sacred kingfisher sanctus little larger buff brown underpart wing patch</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>forest kingfisher also known macleay blue bush kingfisher similar specie two specie related forest kingfisher may similar however collared kingfisher chloris larger greener white wing patch sacred kingfisher sanctus little larger buff brown underpart wing patch</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Forest Kingfisher is also known as Macleay's, Blue or Bush Kingfisher. Similar species: Two species related to the Forest Kingfisher may be similar, however the Collared Kingfisher, T. chloris , is larger and greener with no white wing patch, while the Sacred Kingfisher , T. sanctus , is a little larger with more buff brown underparts and no wing patch. </t>
+          <t>top of page. Skip to Main Content. Home ï¿½ Background ï¿½ Awards &amp; Exhibition ï¿½ Media Covers ï¿½ Clients ï¿½ Landscapes ï¿½ Leaves &amp; The Small World ï¿½ Cityscapesï¿½...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Collared Kingfisher</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>forest kingfisher also known macleay blue bush kingfisher similar specie two specie related forest kingfisher may similar however collared kingfisher chloris larger greener white wing patch sacred kingfisher sanctus little larger buff brown underpart wing patch</t>
+          <t>top page skip main content home background award exhibition medium cover client landscape leaf small world cityscape</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>top page skip main content home background award exhibition medium cover client landscape leaf small world cityscape</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>top of page. Skip to Main Content. Home ï¿½ Background ï¿½ Awards &amp; Exhibition ï¿½ Media Covers ï¿½ Clients ï¿½ Landscapes ï¿½ Leaves &amp; The Small World ï¿½ Cityscapesï¿½...</t>
+          <t xml:space="preserve">Jun 3, 2021 Â·  Collared Kingfishers or White-collared Kingfishers get their name from the white collar patch on their necks. These blue-and-white birds are mainly found in forests and grasslands, and occupy a range of habitats like lowland forests, subtropical dry grasslands, mangroves, marshlands and shrublands. </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>top page skip main content home background award exhibition medium cover client landscape leaf small world cityscape</t>
+          <t>jun collared kingfisher white collared kingfisher get name white collar patch neck blue white bird mainly found forest grassland occupy range habitat like lowland forest subtropical dry grassland mangrove marshland shrublands</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>jun collared kingfisher white collared kingfisher get name white collar patch neck blue white bird mainly found forest grassland occupy range habitat like lowland forest subtropical dry grassland mangrove marshland shrublands</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jun 3, 2021 Â·  Collared Kingfishers or White-collared Kingfishers get their name from the white collar patch on their necks. These blue-and-white birds are mainly found in forests and grasslands, and occupy a range of habitats like lowland forests, subtropical dry grasslands, mangroves, marshlands and shrublands. </t>
+          <t>Published: September 25, 2023 Views: 279</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Collared Kingfisher</t>
+          <t>Little Egret</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jun collared kingfisher white collared kingfisher get name white collar patch neck blue white bird mainly found forest grassland occupy range habitat like lowland forest subtropical dry grassland mangrove marshland shrublands</t>
+          <t>published september view</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>published september view</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Published: September 25, 2023 Views: 279</t>
+          <t>Published: September 13, 2023 Views: 98</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -977,105 +1187,155 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>published september view</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Published: September 13, 2023 Views: 98</t>
+          <t xml:space="preserve">Large kingfisher with variable plumage, but always appears as a much greener and browner bird than either Forest or Sacred kingfishers. Note pale spot in front of the eyes that does not extend back over the eye. Occur exclusively among mangroves and adjacent mudflats and rock-shelves. </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Little Egret</t>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>published september view</t>
+          <t>large kingfisher variable plumage always appears much greener browner bird either forest sacred kingfisher note pale spot front eye extend back eye occur exclusively among mangrove adjacent mudflats rock shelf</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>large kingfisher variable plumage always appears much greener browner bird either forest sacred kingfisher note pale spot front eye extend back eye occur exclusively among mangrove adjacent mudflats rock shelf</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Large kingfisher with variable plumage, but always appears as a much greener and browner bird than either Forest or Sacred kingfishers. Note pale spot in front of the eyes that does not extend back over the eye. Occur exclusively among mangroves and adjacent mudflats and rock-shelves. </t>
+          <t>Introduction Our recent article on the Red-billed Quelea in Punggol generated much debate in local conservation circles and the media about how invasive birds can impact our native biodiversity. Sitting at the crossroads of trade in Asia, Singapore is inevitably also a hub for the pet industry and sets the stage for the sale ofÂ manyâ€¦</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Collared Kingfisher</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>large kingfisher variable plumage always appears much greener browner bird either forest sacred kingfisher note pale spot front eye extend back eye occur exclusively among mangrove adjacent mudflats rock shelf</t>
+          <t>introduction recent article red billed quelea punggol generated much debate local conservation circle medium invasive bird impact native biodiversity sitting crossroad trade asia singapore inevitably also hub pet industry set stage sale many</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>introduction recent article red billed quelea punggol generated much debate local conservation circle medium invasive bird impact native biodiversity sitting crossroad trade asia singapore inevitably also hub pet industry set stage sale many</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction Our recent article on the Red-billed Quelea in Punggol generated much debate in local conservation circles and the media about how invasive birds can impact our native biodiversity. Sitting at the crossroads of trade in Asia, Singapore is inevitably also a hub for the pet industry and sets the stage for the sale ofÂ manyâ€¦</t>
+          <t xml:space="preserve"> Search from Little Egret stock photos, pictures and royalty-free images from iStock. Find high-quality stock photos that you won't find anywhere else.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Little Egret</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>introduction recent article red billed quelea punggol generated much debate local conservation circle medium invasive bird impact native biodiversity sitting crossroad trade asia singapore inevitably also hub pet industry set stage sale many</t>
+          <t>search little egret stock photo picture royalty free image istock find high quality stock photo find anywhere else</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>search little_egret stock photo picture royalty free image istock find high quality stock photo find anywhere else</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search from Little Egret stock photos, pictures and royalty-free images from iStock. Find high-quality stock photos that you won't find anywhere else.</t>
+          <t xml:space="preserve">Posted at May 20 2021 01:35 PM. A black naped oriole (oriolus chinensis) is spotted flying around UP Village in Quezon City on Thursday. The black naped oriole (locally called kilyawan in Tagalog and tulihaw in Visayan) is a fairly common bird in the Philippines, known to be omnivores eating mostly fruits and insects. </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Little Egret</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>search little egret stock photo picture royalty free image istock find high quality stock photo find anywhere else</t>
+          <t>posted may pm black naped oriole oriolus chinensis spotted flying around village quezon city thursday black naped oriole locally called kilyawan tagalog tulihaw visayan fairly common bird philippine known omnivore eating mostly fruit insect</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>posted may pm black naped oriole oriolus chinensis spotted flying around village quezon city thursday black naped oriole locally called kilyawan tagalog tulihaw visayan fairly common bird philippine known omnivore eating mostly fruit insect</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -1083,161 +1343,221 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Posted at May 20 2021 01:35 PM. A black naped oriole (oriolus chinensis) is spotted flying around UP Village in Quezon City on Thursday. The black naped oriole (locally called kilyawan in Tagalog and tulihaw in Visayan) is a fairly common bird in the Philippines, known to be omnivores eating mostly fruits and insects. </t>
+          <t>Order: PasseriformesÂ Â Â  Family: SturnidaeÂ Â Â Â Â Â  Conservation Status: Least Concern Synonyms:Â  White-vented Myna, Buffalo Myna The Javan Myna is often confused with other Myna species, mostly due to the inconsistent usage of the common names associated with the Acridotheres genus of 'crested' mynas. The Javan Myna, Great Myna (Acridotheres grandis) and Crested Myna (Acridotheres cristatellius) have allâ€¦</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>posted may pm black naped oriole oriolus chinensis spotted flying around village quezon city thursday black naped oriole locally called kilyawan tagalog tulihaw visayan fairly common bird philippine known omnivore eating mostly fruit insect</t>
+          <t>order passeriformes family sturnidae conservation status least concern synonym white vented myna buffalo myna javan myna often confused myna specie mostly due inconsistent usage common name associated acridotheres genus crested myna javan myna great myna acridotheres grandis crested myna acridotheres cristatellius</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>order passeriformes family sturnidae conservation status least concern synonym white vented myna buffalo myna javan_myna often confused myna specie mostly due inconsistent usage common name associated acridotheres genus crested myna javan_myna great myna acridotheres grandis crested myna acridotheres cristatellius</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Order: PasseriformesÂ Â Â  Family: SturnidaeÂ Â Â Â Â Â  Conservation Status: Least Concern Synonyms:Â  White-vented Myna, Buffalo Myna The Javan Myna is often confused with other Myna species, mostly due to the inconsistent usage of the common names associated with the Acridotheres genus of 'crested' mynas. The Javan Myna, Great Myna (Acridotheres grandis) and Crested Myna (Acridotheres cristatellius) have allâ€¦</t>
+          <t>#BlackNapedOriole #BeautifulSoundAng bagong alaga ni kurtPlease subscribe po kayo sa channel nminFollow nyo din po ang Fb page namin: shiekurt vlogThank you ðŸ˜Š</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>order passeriformes family sturnidae conservation status least concern synonym white vented myna buffalo myna javan myna often confused myna specie mostly due inconsistent usage common name associated acridotheres genus crested myna javan myna great myna acridotheres grandis crested myna acridotheres cristatellius</t>
+          <t>blacknapedoriole beautifulsoundang bagong alaga ni kurtplease subscribe po kayo sa channel nminfollow nyo din po ang fb page namin shiekurt vlogthank</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>blacknapedoriole beautifulsoundang bagong alaga ni kurtplease subscribe po kayo sa channel nminfollow nyo din po ang fb page namin shiekurt vlogthank</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#BlackNapedOriole #BeautifulSoundAng bagong alaga ni kurtPlease subscribe po kayo sa channel nminFollow nyo din po ang Fb page namin: shiekurt vlogThank you ðŸ˜Š</t>
+          <t xml:space="preserve">Nov 22, 2022 Â·  Collared Kingfisher | image by Julie Edgley via Flickr | CC BY-SA 2.0. Scientific name: Todiramphus chloris. Collared Kingfishers are medium-sized tree kingfishers that live from the Mediterranean all the way to Polynesia. Their bright blue and white feathers stand out against the green and brown foliage of the swamps where they live. </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>blacknapedoriole beautifulsoundang bagong alaga ni kurtplease subscribe po kayo sa channel nminfollow nyo din po ang fb page namin shiekurt vlogthank</t>
+          <t>nov collared kingfisher image julie edgley via flickr cc sa scientific name todiramphus chloris collared kingfisher medium sized tree kingfisher live mediterranean way polynesia bright blue white feather stand green brown foliage swamp live</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>nov collared kingfisher image julie edgley via flickr cc sa scientific name todiramphus chloris collared kingfisher medium sized tree kingfisher live mediterranean way polynesia bright blue white feather stand green brown foliage swamp live</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nov 22, 2022 Â·  Collared Kingfisher | image by Julie Edgley via Flickr | CC BY-SA 2.0. Scientific name: Todiramphus chloris. Collared Kingfishers are medium-sized tree kingfishers that live from the Mediterranean all the way to Polynesia. Their bright blue and white feathers stand out against the green and brown foliage of the swamps where they live. </t>
+          <t>November 30, 2022 - Coby and Michael Dahlem birds of Australia Little Egret (Ardea [Egretta] garzetta)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Collared Kingfisher</t>
+          <t>Little Egret</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>nov collared kingfisher image julie edgley via flickr cc sa scientific name todiramphus chloris collared kingfisher medium sized tree kingfisher live mediterranean way polynesia bright blue white feather stand green brown foliage swamp live</t>
+          <t>november coby michael dahlem bird australia little egret ardea egretta garzetta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>november coby michael dahlem bird australia little_egret ardea egretta garzetta</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>November 30, 2022 - Coby and Michael Dahlem birds of Australia Little Egret (Ardea [Egretta] garzetta)</t>
+          <t xml:space="preserve">Provisional: Either: 1) member of exotic population that is breeding in the wild, self-propagating, and has persisted for multiple years, but not yet Naturalized; 2) rarity of uncertain provenance, with natural vagrancy or captive provenance both considered plausible. When applicable, eBird generally defers to bird records committees for ... </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Little Egret</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>november coby michael dahlem bird australia little egret ardea egretta garzetta</t>
+          <t>provisional either member exotic population breeding wild self propagating persisted multiple year yet naturalized rarity uncertain provenance natural vagrancy captive provenance considered plausible applicable ebird generally defers bird record committee</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>provisional either member exotic population breeding wild self propagating persisted multiple year yet naturalized rarity uncertain provenance natural vagrancy captive provenance considered plausible applicable ebird generally defers bird record committee</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Little Egret</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Provisional: Either: 1) member of exotic population that is breeding in the wild, self-propagating, and has persisted for multiple years, but not yet Naturalized; 2) rarity of uncertain provenance, with natural vagrancy or captive provenance both considered plausible. When applicable, eBird generally defers to bird records committees for ... </t>
+          <t xml:space="preserve">Apr 11, 2021 Â·  The collared kingfisher, scientific name Todiramphus chloris is a medium-sized kingfisher belonging to the subfamily Halcyoninae, the tree kingfishers. This article is going to provide you an overview of collared kingfisher sound, food, facts, diet, etc. It is usually referred to as the white-collared kingfisher or mangrove kingfisher. </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>provisional either member exotic population breeding wild self propagating persisted multiple year yet naturalized rarity uncertain provenance natural vagrancy captive provenance considered plausible applicable ebird generally defers bird record committee</t>
+          <t>apr collared kingfisher scientific name todiramphus chloris medium sized kingfisher belonging subfamily halcyoninae tree kingfisher article going provide overview collared kingfisher sound food fact diet etc usually referred white collared kingfisher mangrove kingfisher</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>apr collared kingfisher scientific name todiramphus chloris medium sized kingfisher belonging subfamily halcyoninae tree kingfisher article going provide overview collared kingfisher sound food fact diet etc usually referred white collared kingfisher mangrove kingfisher</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apr 11, 2021 Â·  The collared kingfisher, scientific name Todiramphus chloris is a medium-sized kingfisher belonging to the subfamily Halcyoninae, the tree kingfishers. This article is going to provide you an overview of collared kingfisher sound, food, facts, diet, etc. It is usually referred to as the white-collared kingfisher or mangrove kingfisher. </t>
+          <t xml:space="preserve">Actenoides concretus ( Temminck, CJ 1825) The rufous-collared kingfisher is a species of bird in the family Alcedinidae. It is found in Brunei, Indonesia, Malaysia, Myanmar, and Thailand. Its natural habitats are subtropical or tropical moist lowland forest and subtropical or tropical moist montane forest. </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1247,85 +1567,125 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>apr collared kingfisher scientific name todiramphus chloris medium sized kingfisher belonging subfamily halcyoninae tree kingfisher article going provide overview collared kingfisher sound food fact diet etc usually referred white collared kingfisher mangrove kingfisher</t>
+          <t>actenoides concretus temminck cj rufous collared kingfisher specie bird family alcedinidae found brunei indonesia malaysia myanmar thailand natural habitat subtropical tropical moist lowland forest subtropical tropical moist montane forest</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>actenoides concretus temminck cj rufous collared kingfisher specie bird family alcedinidae found brunei indonesia malaysia myanmar thailand natural habitat subtropical tropical moist lowland forest subtropical tropical moist montane forest</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Collared Kingfisher</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actenoides concretus ( Temminck, CJ 1825) The rufous-collared kingfisher is a species of bird in the family Alcedinidae. It is found in Brunei, Indonesia, Malaysia, Myanmar, and Thailand. Its natural habitats are subtropical or tropical moist lowland forest and subtropical or tropical moist montane forest. </t>
+          <t>Everyone knows Singaporeâ€™s national flower is the Orchid, but do you know that Singaporeâ€™s national bird is the Crimson Sunbird?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Collared Kingfisher</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>actenoides concretus temminck cj rufous collared kingfisher specie bird family alcedinidae found brunei indonesia malaysia myanmar thailand natural habitat subtropical tropical moist lowland forest subtropical tropical moist montane forest</t>
+          <t>everyone know singapore national flower orchid know singapore national bird crimson sunbird</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>everyone know singapore national flower orchid know singapore national bird crimson sunbird</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Everyone knows Singaporeâ€™s national flower is the Orchid, but do you know that Singaporeâ€™s national bird is the Crimson Sunbird?</t>
+          <t>It was in Singapore in 2012 that photographer Anaï¿½s Lï¿½pez first encountered the Javan mynah, a small black bird with yellow legs, a prominent crest and a loud,ï¿½...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>everyone know singapore national flower orchid know singapore national bird crimson sunbird</t>
+          <t>singapore photographer ana l pez first encountered javan mynah small black bird yellow leg prominent crest loud</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>singapore photographer ana l pez first encountered javan mynah small black bird yellow leg prominent crest loud</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>It was in Singapore in 2012 that photographer Anaï¿½s Lï¿½pez first encountered the Javan mynah, a small black bird with yellow legs, a prominent crest and a loud,ï¿½...</t>
+          <t>Ying'er (Chinese: èŽºå„¿ YÄ«ng'er) is an open-world NPC in Liyue Harbor. Her dialogue changes slightly after completing Act II of Chapter I. Ying'er is a shop assistant for the Scent of Spring at Chihu Rock, a shop for fine vases. She also makes perfumes as a side job. During the events of Farewell...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Javan Myna</t>
+          <t>Black-naped Oriole</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>singapore photographer ana l pez first encountered javan mynah small black bird yellow leg prominent crest loud</t>
+          <t>ying er chinese ng er open world npc liyue harbor dialogue change slightly completing act ii chapter ying er shop assistant scent spring chihu rock shop fine vas also make perfume side job event farewell</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>ying er chinese ng er open world npc liyue harbor dialogue change slightly completing act ii chapter ying er shop assistant scent spring chihu rock shop fine vas also make perfume side job event farewell</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -1333,11 +1693,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ying'er (Chinese: èŽºå„¿ YÄ«ng'er) is an open-world NPC in Liyue Harbor. Her dialogue changes slightly after completing Act II of Chapter I. Ying'er is a shop assistant for the Scent of Spring at Chihu Rock, a shop for fine vases. She also makes perfumes as a side job. During the events of Farewell...</t>
+          <t xml:space="preserve">The yellow oriole ( O. flavocinctus) and olive-backed oriole ( O. sagittatus) are greenish-yellow Australian species. The black-and-crimson oriole ( O. cruentus) of Malaya, Borneo, Sumatra, and Bali is mostly black-colored, with dark, crimson patches on the breast and on the wings. The yellow figbird, or bananabird ( Sphecotheres viridis ... </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1347,10 +1707,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ying er chinese ng er open world npc liyue harbor dialogue change slightly completing act ii chapter ying er shop assistant scent spring chihu rock shop fine vas also make perfume side job event farewell</t>
+          <t>yellow oriole flavocinctus olive backed oriole sagittatus greenish yellow australian specie black crimson oriole cruentus malaya borneo sumatra bali mostly black colored dark crimson patch breast wing yellow figbird bananabird sphecotheres viridis</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>yellow oriole flavocinctus olive backed oriole sagittatus greenish yellow australian specie black crimson oriole cruentus malaya borneo sumatra bali mostly black colored dark crimson patch breast wing yellow figbird bananabird sphecotheres viridis</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -1358,11 +1728,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">The yellow oriole ( O. flavocinctus) and olive-backed oriole ( O. sagittatus) are greenish-yellow Australian species. The black-and-crimson oriole ( O. cruentus) of Malaya, Borneo, Sumatra, and Bali is mostly black-colored, with dark, crimson patches on the breast and on the wings. The yellow figbird, or bananabird ( Sphecotheres viridis ... </t>
+          <t xml:space="preserve">Black-naped orioles have been recorded to feed on a range of berries including Trema orientalis, Ficus and others apart from insects. In India it has been no... </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1372,10 +1742,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>yellow oriole flavocinctus olive backed oriole sagittatus greenish yellow australian specie black crimson oriole cruentus malaya borneo sumatra bali mostly black colored dark crimson patch breast wing yellow figbird bananabird sphecotheres viridis</t>
+          <t>black naped oriole recorded feed range berry including trema orientalis ficus others apart insect india</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
+        <is>
+          <t>black naped oriole recorded feed range berry including trema orientalis ficus others apart insect india</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Black-naped Oriole</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Black-naped Oriole</t>
         </is>
@@ -1383,51 +1763,36 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Black-naped orioles have been recorded to feed on a range of berries including Trema orientalis, Ficus and others apart from insects. In India it has been no... </t>
+          <t>7 Nov 2010 ï¿½ The Javan Myna has an amazingly liquid voice that allows it to imitate a range of calls into its repertoire, emanating through itsï¿½...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
+          <t>Javan Myna</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>black naped oriole recorded feed range berry including trema orientalis ficus others apart insect india</t>
+          <t>nov javan myna amazingly liquid voice allows imitate range call repertoire emanating</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Black-naped Oriole</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>7 Nov 2010 ï¿½ The Javan Myna has an amazingly liquid voice that allows it to imitate a range of calls into its repertoire, emanating through itsï¿½...</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Javan Myna</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nov javan myna amazingly liquid voice allows imitate range call repertoire emanating</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Black-naped Oriole</t>
+          <t>nov javan_myna amazingly liquid voice allows imitate range call repertoire emanating</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Javan Myna</t>
         </is>
       </c>
     </row>

--- a/Natural Language Processing/Assignment/newtest.xlsx
+++ b/Natural Language Processing/Assignment/newtest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>lvc_pred</t>
+          <t>lvc_prediction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>lvc_prediction</t>
+          <t>sv,</t>
         </is>
       </c>
     </row>
